--- a/TestData/ProductCategory/TestProductCategory.xlsx
+++ b/TestData/ProductCategory/TestProductCategory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POM_for_Bottle\WebApp\TestData\ProductCategory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E8581D-37EC-41C3-8DD2-26232F736AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB95E3-D06E-4F25-8530-EE6DC2F1625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,76 +57,76 @@
     <t>E:\POM_for_Bottle\WebApp\TestData\ProductCategory\SampleImage\sampel_leather_3.jpg</t>
   </si>
   <si>
-    <t>Category-13</t>
-  </si>
-  <si>
-    <t>Category-14</t>
-  </si>
-  <si>
-    <t>Category-15</t>
-  </si>
-  <si>
-    <t>Category-16</t>
-  </si>
-  <si>
-    <t>Category-17</t>
-  </si>
-  <si>
-    <t>Category-18</t>
-  </si>
-  <si>
-    <t>Category-edit-13</t>
-  </si>
-  <si>
-    <t>Category-edit-14</t>
-  </si>
-  <si>
-    <t>Category-edit-15</t>
-  </si>
-  <si>
-    <t>Category-edit-16</t>
-  </si>
-  <si>
-    <t>Category-edit-17</t>
-  </si>
-  <si>
-    <t>Category-edit-18</t>
-  </si>
-  <si>
-    <t>Sub-category-13</t>
-  </si>
-  <si>
-    <t>Sub-category-14</t>
-  </si>
-  <si>
-    <t>Sub-category-15</t>
-  </si>
-  <si>
-    <t>Sub-category-16</t>
-  </si>
-  <si>
-    <t>Sub-category-17</t>
-  </si>
-  <si>
-    <t>Sub-category-18</t>
-  </si>
-  <si>
-    <t>Edited-Sub-category-13</t>
-  </si>
-  <si>
-    <t>Edited-Sub-category-14</t>
-  </si>
-  <si>
-    <t>Edited-Sub-category-15</t>
-  </si>
-  <si>
-    <t>Edited-Sub-category-16</t>
-  </si>
-  <si>
-    <t>Edited-Sub-category-17</t>
-  </si>
-  <si>
-    <t>Edited-Sub-category-18</t>
+    <t>Product-Cat-01</t>
+  </si>
+  <si>
+    <t>Product-Cat-02</t>
+  </si>
+  <si>
+    <t>Product-Cat-03</t>
+  </si>
+  <si>
+    <t>Product-Cat-04</t>
+  </si>
+  <si>
+    <t>Product-Cat-05</t>
+  </si>
+  <si>
+    <t>Product-Cat-06</t>
+  </si>
+  <si>
+    <t>Product-Cat-edit-01</t>
+  </si>
+  <si>
+    <t>Product-Cat-edit-02</t>
+  </si>
+  <si>
+    <t>Product-Cat-edit-03</t>
+  </si>
+  <si>
+    <t>Product-Cat-edit-04</t>
+  </si>
+  <si>
+    <t>Product-Cat-edit-05</t>
+  </si>
+  <si>
+    <t>Product-Cat-edit-06</t>
+  </si>
+  <si>
+    <t>Product-Sub-category-01</t>
+  </si>
+  <si>
+    <t>Product-Sub-category-02</t>
+  </si>
+  <si>
+    <t>Product-Sub-category-03</t>
+  </si>
+  <si>
+    <t>Product-Sub-category-04</t>
+  </si>
+  <si>
+    <t>Product-Sub-category-05</t>
+  </si>
+  <si>
+    <t>Product-Sub-category-06</t>
+  </si>
+  <si>
+    <t>Sub-category (Edit)-01</t>
+  </si>
+  <si>
+    <t>Sub-category (Edit)-02</t>
+  </si>
+  <si>
+    <t>Sub-category (Edit)-03</t>
+  </si>
+  <si>
+    <t>Sub-category (Edit)-04</t>
+  </si>
+  <si>
+    <t>Sub-category (Edit)-05</t>
+  </si>
+  <si>
+    <t>Sub-category (Edit)-06</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
